--- a/res/Dialogue.xlsx
+++ b/res/Dialogue.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oJadeo\Desktop\Game Dev\DC\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\godot-workspace\detectivecyber\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD828D89-97F7-488A-BDA4-B7F909BBDBFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB127AC-D812-4515-AEEF-67736AE6F98D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{618483CD-35FE-4F4A-86D8-5514EE9ED468}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="99">
   <si>
     <t>Adnan Selitto (คนเขียนหุ่น)</t>
   </si>
@@ -229,24 +229,123 @@
   </si>
   <si>
     <t>he use most of time doing something onh his personal phone</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>คุณคิดว่าทำไมเขาถึงอยากได้หุ่นยนต์ใหม่หล่ะ</t>
+  </si>
+  <si>
+    <t>ผมคิดว่าเพราะมันเก่าแล้ว และก็โปรแกรมมันก็ไม่ได้ดีด้วย</t>
+  </si>
+  <si>
+    <t>สวัสดีครับนี้คุณ....ใช่ไหมคับ</t>
+  </si>
+  <si>
+    <t>ใช่ครับ มีอะไรหรือป่าวคับ</t>
+  </si>
+  <si>
+    <t>ผมมาจากทางตำรวจเกี่ยวคดีการตายของคุณ......พอมีเวลาตอบคำถามซัก 2-3 คำถามไหมครับ</t>
+  </si>
+  <si>
+    <t>ได้ครับๆ</t>
+  </si>
+  <si>
+    <t>คุณทั้งคู่รู้จักกันได้ไง</t>
+  </si>
+  <si>
+    <t>พวกเรารู้จักกันตั้งแต่สมัยเรียนอยู่ที่..... เราสนิทกันมากรวมทั้งเพื่อนอีกคน คือ ...... เราไปไหนมาไหนด้วยกันตลอด</t>
+  </si>
+  <si>
+    <t>จนเรียนจบพวกเราตั้งใจจะเปิดร้านอาหารกัน ก็คือบาร์ที่เกิดเหตุนั่นแหละคับ</t>
+  </si>
+  <si>
+    <t>ช่วยเล่าตอนเกิดเหตุการณ์ขึ้นได้ไหมคับ</t>
+  </si>
+  <si>
+    <t>ผมก็พยายามถามเขาอยู่ว่าเป็นอะไรหรือป่าว แต่เขาก็บอกแค่ว่า คงมึนหัวจากยาประจำตัวของเขา และเขาขอนอนพัก</t>
+  </si>
+  <si>
+    <t>คุณบอกคุณและเพื่อนสร้างบาร์นี้ขึ้นมา แล้วคุณทำอะไรหล่ะ</t>
+  </si>
+  <si>
+    <t>เราก็กินไปไม่ได้สนใจเขา ตอนร้านใกล้เราก็พยายามปลุกเข้า แต่เขาก็ไม่ตอบรู้ตัวอีกทีเขาก็ตายแล้ว</t>
+  </si>
+  <si>
+    <t>ผมเป็นคนจัดการสร้าง จัดหาอุปกรณ์ทุกอย่างมาให้ ทั้งแสงสี เครื่องเสียง และหุ่นยนต์ในบาร์ด้วย</t>
+  </si>
+  <si>
+    <t>วันที่เกิดเหตุ ...มาชวนเราไปกินข้าวคิดว่าคงมาให้คุยเรื่องอะไรบางอย่างแหล่ะ แต่ปกติเขาจะเป็นคนอย่างี้ คือท้องไม่อิ่มก็ยังไม่คุยเรื่องงานเท่าไหร่</t>
+  </si>
+  <si>
+    <t>เรารอข้าวกันอยู่ นั่งกินคอกเทลตามภาษาคนนั่งบาร์ ตอนนั้นข้าวกำลังจะมาเสริฟพอดี เขาดูสีหน้าไม่ค่อยดีเท่าไหร่</t>
+  </si>
+  <si>
+    <t>คุณคิดว่าเขาชวนมาคุยเรื่องอะไร</t>
+  </si>
+  <si>
+    <t>ผมคิดว่าเขาคงชวนมาเรื่องปรับปรุงร้านใหม่นะ เพราะเขามาถามผมเรื่องหุ่นยนต์เมื่อ2-3วันก่อน</t>
+  </si>
+  <si>
+    <t>คุณคิดว่าเพื่อนคุณมีปัญหากับใครหรือป่าวคับ</t>
+  </si>
+  <si>
+    <t>ผมไม่แน่ใจเหมือนกันครับ ปกติผมไม่ค่อยรู้จักใคร ใช้ชีวิตอยู่กับบ้านเป็นหลัก</t>
+  </si>
+  <si>
+    <t>อย่าเรียกว่ารู้จัก เรียกว่าซี้ปึกเลยดีกว่า มีผม ... กับ ... เราเรียนด้วยกันที่ ... รู้จักกันมาร่วม 20 ปีได้แล้วมั้ง</t>
+  </si>
+  <si>
+    <t>เรียนจบเราก็สร้างบาร์แห่งนี้ขึ้นมา เราอยากให้มันเป็นบาร์ที่ไฮเทค และมีคอกเทลที่ดีที่สุดเมือง</t>
+  </si>
+  <si>
+    <t>มี adnan ของดูแลเรื่องทุกอย่างเบื้องหลัง ส่วนผมก้ช่วยออกแบบสูตรคอกเทลให้ร้านที่เจ๋งๆเลยหล่ะ</t>
+  </si>
+  <si>
+    <t>คุณคงเคยรู้จักในข่าวมาบ้างนะ แต่ก็อย่างว่าบางทีมันก็ไม่ได้เป็นอย่างที่คิด เรากระทบหนักมากตอนช่วงเริ่มเปิดใหม่ๆ</t>
+  </si>
+  <si>
+    <t>ช่วงนั้นมีโรคระบาดที่ติดกันหนักมาก ทำให้ร้านเราเกือบเจ๊งเลยแหล่ะ แต่...ก็เข็นมันจนรอดช่วงยากลำบากมาได้</t>
+  </si>
+  <si>
+    <t>เขาก็นัดมากินข้าวแหล่ะ ตามประสาเพื่อน ผมก็ไม่ได้คิดอะไร เขายังเหมือนเดิน ฟังเพลงJazz ดื่ม</t>
+  </si>
+  <si>
+    <t>Cranberry Sparkler ที่เขาชอบผมจะบอกให้นะเมนูนั่นผมคิดเองด้วยนะๆ แต่อยู่ดีเขาก็ดูเพลียๆ</t>
+  </si>
+  <si>
+    <t>และก็หลับซักพัก ตัวผมขอกลับก่อน รู้ข่าวอีกที เขาก็จากผมไปแล้ว</t>
+  </si>
+  <si>
+    <t>คุณคิดว่ามีอะไรแปลกไหมก่อนคุณกลับ</t>
+  </si>
+  <si>
+    <t>Adnan ทำตัวแปลกนะ เขาเอาแต่ดูมือถือตลอดเวลา เหมือนปิดบังอะไรอยู่</t>
+  </si>
+  <si>
+    <t>Adnan กับผู้ตายมีปัญหาอะไรกันหรือป่าวคับ</t>
+  </si>
+  <si>
+    <t>ผมว่าน่าจะมีปัญหากันเรื่องหุ่นยนต์ตัวเก่าของadnanนะ ดูเขาอยากจะเปลี่ยนมันเอามากๆ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -729,32 +828,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9912F848-B9FD-4FA8-9186-2B2190BE8570}">
-  <dimension ref="B1:W21"/>
+  <dimension ref="B1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="58.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="52" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="55.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:23">
       <c r="K1" s="18" t="s">
         <v>4</v>
       </c>
@@ -762,7 +861,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:23">
       <c r="K2" t="s">
         <v>5</v>
       </c>
@@ -776,7 +875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:23">
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
@@ -802,7 +901,7 @@
       <c r="V4" s="18"/>
       <c r="W4" s="18"/>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:23">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -844,7 +943,7 @@
       </c>
       <c r="W5" s="9"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:23">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8" t="s">
@@ -870,7 +969,7 @@
       </c>
       <c r="W6" s="9"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:23">
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -897,7 +996,7 @@
       </c>
       <c r="W7" s="7"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:23">
       <c r="B8" s="2"/>
       <c r="D8" s="4" t="s">
         <v>15</v>
@@ -924,7 +1023,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:23">
       <c r="B9" s="2"/>
       <c r="D9" s="4" t="s">
         <v>26</v>
@@ -951,7 +1050,7 @@
       </c>
       <c r="W9" s="7"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:23">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
@@ -985,7 +1084,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:23">
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8" t="s">
@@ -1015,7 +1114,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:23">
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1043,7 +1142,7 @@
       </c>
       <c r="W12" s="7"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:23">
       <c r="B13" s="2"/>
       <c r="D13" s="4" t="s">
         <v>24</v>
@@ -1070,7 +1169,7 @@
       <c r="U13" s="11"/>
       <c r="V13" s="4"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:23">
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1098,7 +1197,7 @@
       </c>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:23">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8" t="s">
@@ -1106,6 +1205,9 @@
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="4"/>
@@ -1123,11 +1225,16 @@
       </c>
       <c r="T15" s="9"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="4"/>
+    <row r="16" spans="2:23">
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="8"/>
       <c r="J16" s="14" t="s">
@@ -1144,7 +1251,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16">
       <c r="B17" s="2"/>
       <c r="D17" s="4"/>
       <c r="H17" s="9" t="s">
@@ -1155,21 +1262,199 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16">
       <c r="B18" s="2"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:16">
       <c r="B19" s="2"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
+    <row r="20" spans="2:16">
+      <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:16">
       <c r="B21" s="2"/>
       <c r="D21" s="4"/>
+      <c r="O21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="O23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="O25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="O27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="O29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="O31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="O32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15">
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="O33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15">
+      <c r="O34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15">
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="O35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15">
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="O37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15">
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15">
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="O39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15">
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="O40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15">
+      <c r="O41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15">
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15">
+      <c r="O43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15">
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15">
+      <c r="O45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15">
+      <c r="C46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15">
+      <c r="O47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15">
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15">
+      <c r="O49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15">
+      <c r="C50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15">
+      <c r="C52" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15">
+      <c r="C54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="3:15">
+      <c r="C56" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/res/Dialogue.xlsx
+++ b/res/Dialogue.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oJadeo\Desktop\Game Dev\DC\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DETECTIVECYBER\detectivecyber\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD828D89-97F7-488A-BDA4-B7F909BBDBFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{618483CD-35FE-4F4A-86D8-5514EE9ED468}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -228,13 +227,13 @@
     <t>He doesn't talk much</t>
   </si>
   <si>
-    <t>he use most of time doing something onh his personal phone</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,7 +416,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -728,11 +727,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9912F848-B9FD-4FA8-9186-2B2190BE8570}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/res/Dialogue.xlsx
+++ b/res/Dialogue.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\godot-workspace\detectivecyber\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DETECTIVECYBER\detectivecyber\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB127AC-D812-4515-AEEF-67736AE6F98D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{618483CD-35FE-4F4A-86D8-5514EE9ED468}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8805" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Morgan Dell" sheetId="3" r:id="rId2"/>
+    <sheet name="Adnan" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="177">
   <si>
     <t>Adnan Selitto (คนเขียนหุ่น)</t>
   </si>
@@ -328,24 +329,258 @@
   </si>
   <si>
     <t>ผมว่าน่าจะมีปัญหากันเรื่องหุ่นยนต์ตัวเก่าของadnanนะ ดูเขาอยากจะเปลี่ยนมันเอามากๆ</t>
+  </si>
+  <si>
+    <t>Sentence</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>NextSentenceAvailable</t>
+  </si>
+  <si>
+    <t>Hello , is this Adnan Selitto?</t>
+  </si>
+  <si>
+    <t>Yes, what can I help you?</t>
+  </si>
+  <si>
+    <t>I come from Police Department of Rennberg City, I want to ask you a question, about Igo's death.</t>
+  </si>
+  <si>
+    <t>Yes, go ahead.</t>
+  </si>
+  <si>
+    <t>Tell me about yourself?</t>
+  </si>
+  <si>
+    <t>Tell me about Igo?</t>
+  </si>
+  <si>
+    <t>Can you tell me about that day, detailed one.</t>
+  </si>
+  <si>
+    <t>Tell me more about Igo</t>
+  </si>
+  <si>
+    <t>He invited me to build this bar.</t>
+  </si>
+  <si>
+    <t>How did you know each other?</t>
+  </si>
+  <si>
+    <t>You told me you built this bar, what did you do?</t>
+  </si>
+  <si>
+    <t>Can you tell me about that day, detailed one</t>
+  </si>
+  <si>
+    <t>He's honest guy,</t>
+  </si>
+  <si>
+    <t>I am an engineer.</t>
+  </si>
+  <si>
+    <t>I built this bar with Igo.</t>
+  </si>
+  <si>
+    <t>And it goes really well.</t>
+  </si>
+  <si>
+    <t>He invited me to eat at our place, probably want to discuss about something.</t>
+  </si>
+  <si>
+    <t>But he's always like this, never speak about works unless he's full.</t>
+  </si>
+  <si>
+    <t>We're waiting for food, sipping a drink like those coming to bar.</t>
+  </si>
+  <si>
+    <t>and then the food came, his face looked so bad.</t>
+  </si>
+  <si>
+    <t>Probably a side affect from my ordinary pills',he said.</t>
+  </si>
+  <si>
+    <t>I asked how he felt.</t>
+  </si>
+  <si>
+    <t>And he said he wanted to take some rest.</t>
+  </si>
+  <si>
+    <t>So we ignore him and started eating,</t>
+  </si>
+  <si>
+    <t>But we never knew that he would rest eternally.</t>
+  </si>
+  <si>
+    <t>Can you guess what he want to discuss?</t>
+  </si>
+  <si>
+    <t>Did your friend ever had an argument with someone?</t>
+  </si>
+  <si>
+    <t>Maybe about renovating the bar, he asked me about new bartender robot</t>
+  </si>
+  <si>
+    <t>Why?</t>
+  </si>
+  <si>
+    <t>You told me you built this bar what did you do</t>
+  </si>
+  <si>
+    <t>I lead the construction project and electrical system: lighting and sound</t>
+  </si>
+  <si>
+    <t>Because the current robot is really old, it is the first and only bartender robot in here.</t>
+  </si>
+  <si>
+    <t>the menu inside it are not enough.</t>
+  </si>
+  <si>
+    <t>And the program is crap like hell.</t>
+  </si>
+  <si>
+    <t>And I like staying home.</t>
+  </si>
+  <si>
+    <t>I don't really know.</t>
+  </si>
+  <si>
+    <t>I don't get in contact with anyone if not necessary.</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Unlock</t>
+  </si>
+  <si>
+    <t>Hello is this Morgan Dell?</t>
+  </si>
+  <si>
+    <t>Yes I am.</t>
+  </si>
+  <si>
+    <t>I come from Police Department, can I ask you about Igo's death?</t>
+  </si>
+  <si>
+    <t>Yup, go on.</t>
+  </si>
+  <si>
+    <t>What can you remember about that day?</t>
+  </si>
+  <si>
+    <t>Tell me about Igo.</t>
+  </si>
+  <si>
+    <t>Tell me about yourself.</t>
+  </si>
+  <si>
+    <t>We come a long way,</t>
+  </si>
+  <si>
+    <t>He is a kind of the leader,</t>
+  </si>
+  <si>
+    <t>The one who design this place,</t>
+  </si>
+  <si>
+    <t>eventhough it's not thing much these day.</t>
+  </si>
+  <si>
+    <t>It's been a while since I've seen this place.</t>
+  </si>
+  <si>
+    <t>I am the manager.</t>
+  </si>
+  <si>
+    <t>This place has changed a lot</t>
+  </si>
+  <si>
+    <t>I recommended him that one myself.</t>
+  </si>
+  <si>
+    <t>And he said he felt sleepy</t>
+  </si>
+  <si>
+    <t>and he take a rest</t>
+  </si>
+  <si>
+    <t>so I took a leave back home</t>
+  </si>
+  <si>
+    <t>and his family told me he died next morning.</t>
+  </si>
+  <si>
+    <t>but Adnan was really weird that day</t>
+  </si>
+  <si>
+    <t>How do you know each other</t>
+  </si>
+  <si>
+    <t>How do you know each other?</t>
+  </si>
+  <si>
+    <t>You shouldn't say "know", because we are more than that</t>
+  </si>
+  <si>
+    <t>we are best friend, along with Adnan.</t>
+  </si>
+  <si>
+    <t>We studied at the same place 20 years ago.</t>
+  </si>
+  <si>
+    <t>We graduated and then planning to build the bar,</t>
+  </si>
+  <si>
+    <t>We want it to be the modern one with the best cocktail in the city.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adnan controlled construction and lighting. </t>
+  </si>
+  <si>
+    <t>With me creating cocktail recipe.</t>
+  </si>
+  <si>
+    <t>You might know from the news.</t>
+  </si>
+  <si>
+    <t>But sometimes it wasn't like that,</t>
+  </si>
+  <si>
+    <t>It almost went into bankruptcy on the start because the pandemic.</t>
+  </si>
+  <si>
+    <t>But it survived.</t>
+  </si>
+  <si>
+    <t>He always look at his phone, look like he was trying to hide something.</t>
+  </si>
+  <si>
+    <t>Did he and the suspect get into an argument?</t>
+  </si>
+  <si>
+    <t>Maybe about the bartender robot Adnan programmed, he want to replace with a modern one.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -487,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -514,9 +749,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -827,33 +1063,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9912F848-B9FD-4FA8-9186-2B2190BE8570}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+    <sheetView topLeftCell="K37" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="52" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="55.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.2">
       <c r="K1" s="18" t="s">
         <v>4</v>
       </c>
@@ -861,7 +1097,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
     </row>
-    <row r="2" spans="2:23">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="K2" t="s">
         <v>5</v>
       </c>
@@ -875,7 +1111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:23">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
@@ -901,7 +1137,7 @@
       <c r="V4" s="18"/>
       <c r="W4" s="18"/>
     </row>
-    <row r="5" spans="2:23">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -943,7 +1179,7 @@
       </c>
       <c r="W5" s="9"/>
     </row>
-    <row r="6" spans="2:23">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8" t="s">
@@ -969,7 +1205,7 @@
       </c>
       <c r="W6" s="9"/>
     </row>
-    <row r="7" spans="2:23">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -996,7 +1232,7 @@
       </c>
       <c r="W7" s="7"/>
     </row>
-    <row r="8" spans="2:23">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="D8" s="4" t="s">
         <v>15</v>
@@ -1023,7 +1259,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="2:23">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="D9" s="4" t="s">
         <v>26</v>
@@ -1050,7 +1286,7 @@
       </c>
       <c r="W9" s="7"/>
     </row>
-    <row r="10" spans="2:23">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1084,7 +1320,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:23">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8" t="s">
@@ -1114,7 +1350,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:23">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1142,7 +1378,7 @@
       </c>
       <c r="W12" s="7"/>
     </row>
-    <row r="13" spans="2:23">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="D13" s="4" t="s">
         <v>24</v>
@@ -1169,7 +1405,7 @@
       <c r="U13" s="11"/>
       <c r="V13" s="4"/>
     </row>
-    <row r="14" spans="2:23">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,7 +1433,7 @@
       </c>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="2:23">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8" t="s">
@@ -1225,7 +1461,7 @@
       </c>
       <c r="T15" s="9"/>
     </row>
-    <row r="16" spans="2:23">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>66</v>
       </c>
@@ -1251,7 +1487,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="D17" s="4"/>
       <c r="H17" s="9" t="s">
@@ -1262,78 +1498,78 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="D21" s="4"/>
       <c r="O21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="O23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="O25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="O27" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="O29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="O31" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>74</v>
       </c>
@@ -1341,7 +1577,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="3:15">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>75</v>
       </c>
@@ -1349,12 +1585,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="3:15">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
       <c r="O34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="3:15">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>76</v>
       </c>
@@ -1362,7 +1598,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="3:15">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>81</v>
       </c>
@@ -1370,12 +1606,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="3:15">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="3:15">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>77</v>
       </c>
@@ -1383,7 +1619,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="3:15">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>79</v>
       </c>
@@ -1391,67 +1627,67 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="3:15">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
       <c r="O41" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="3:15">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="3:15">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
       <c r="O43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="3:15">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="3:15">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
       <c r="O45" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="3:15">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="3:15">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.2">
       <c r="O47" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="3:15">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="3:15">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="O49" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="3:15">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="3:15">
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="3:15">
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="3:15">
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>86</v>
       </c>
@@ -1467,4 +1703,456 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="61.125" customWidth="1"/>
+    <col min="2" max="2" width="84.625" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="62.125" customWidth="1"/>
+    <col min="2" max="2" width="84" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/res/Dialogue.xlsx
+++ b/res/Dialogue.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8805" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8805" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Morgan Dell" sheetId="3" r:id="rId2"/>
     <sheet name="Adnan" sheetId="2" r:id="rId3"/>
+    <sheet name="Garold" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="197">
   <si>
     <t>Adnan Selitto (คนเขียนหุ่น)</t>
   </si>
@@ -388,9 +389,6 @@
     <t>And it goes really well.</t>
   </si>
   <si>
-    <t>He invited me to eat at our place, probably want to discuss about something.</t>
-  </si>
-  <si>
     <t>But he's always like this, never speak about works unless he's full.</t>
   </si>
   <si>
@@ -563,6 +561,69 @@
   </si>
   <si>
     <t>Maybe about the bartender robot Adnan programmed, he want to replace with a modern one.</t>
+  </si>
+  <si>
+    <t>probably want to discuss about something.</t>
+  </si>
+  <si>
+    <t>Actually I was busy that day but he told me to go there,</t>
+  </si>
+  <si>
+    <t>Unlocked Sentence</t>
+  </si>
+  <si>
+    <t>Hello, is this Garold Jelovich?</t>
+  </si>
+  <si>
+    <t>Yup, what's matter?</t>
+  </si>
+  <si>
+    <t>I come from the Police Department, would you participate us in answering the question? About the death in the bar.</t>
+  </si>
+  <si>
+    <t>Of course.</t>
+  </si>
+  <si>
+    <t>Introduce yourself</t>
+  </si>
+  <si>
+    <t>Tell me about that day</t>
+  </si>
+  <si>
+    <t>Tell me about the victim</t>
+  </si>
+  <si>
+    <t>I am Garold Jelovich</t>
+  </si>
+  <si>
+    <t>I am doing a job in a bar as a PR manager</t>
+  </si>
+  <si>
+    <t>He is a good boss</t>
+  </si>
+  <si>
+    <t>He gave me a job when nobody did</t>
+  </si>
+  <si>
+    <t>I've been working at this place for a long time</t>
+  </si>
+  <si>
+    <t>How did you know each other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was looking for a job but none of them accepted me. </t>
+  </si>
+  <si>
+    <t>I went to bar to get drunk and relief some stress</t>
+  </si>
+  <si>
+    <t>which I graduated, so I got a job there.</t>
+  </si>
+  <si>
+    <t>He was the life saver of mine.</t>
+  </si>
+  <si>
+    <t>but instead I saw the poster they needed a PR.</t>
   </si>
 </sst>
 </file>
@@ -740,6 +801,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -749,7 +811,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -1066,7 +1127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W56"/>
   <sheetViews>
-    <sheetView topLeftCell="K37" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
@@ -1090,12 +1151,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="K2" t="s">
@@ -1112,30 +1173,30 @@
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="H4" s="18" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="H4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="N4" s="19" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="N4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="T4" s="18" t="s">
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="T4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -1709,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1722,66 +1783,66 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
         <v>141</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>142</v>
-      </c>
-      <c r="C2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
         <v>143</v>
       </c>
-      <c r="B4" t="s">
-        <v>144</v>
-      </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1791,7 +1852,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1799,22 +1860,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>52</v>
@@ -1830,90 +1891,90 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" t="s">
         <v>162</v>
-      </c>
-      <c r="B27" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1921,18 +1982,18 @@
         <v>63</v>
       </c>
       <c r="B39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" t="s">
         <v>174</v>
-      </c>
-      <c r="C39" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" t="s">
         <v>175</v>
-      </c>
-      <c r="B41" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1945,10 +2006,10 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2048,108 +2109,243 @@
         <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="20" t="s">
+      <c r="B22" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>124</v>
+      <c r="B23" s="17" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
         <v>129</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B30" t="s">
         <v>131</v>
       </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>130</v>
-      </c>
-      <c r="B31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35" t="s">
-        <v>137</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>127</v>
+      </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="48.75" customWidth="1"/>
+    <col min="2" max="2" width="94.125" customWidth="1"/>
+    <col min="3" max="3" width="49.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
